--- a/biology/Botanique/Bois_de_la_Bastide/Bois_de_la_Bastide.xlsx
+++ b/biology/Botanique/Bois_de_la_Bastide/Bois_de_la_Bastide.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le bois de la Bastide est un parc situé sur la commune de Limoges, au nord de la ville, près du quartier de La Bastide, et non loin de celui de Beaubreuil, enserré par la route nationale 520, qui à l'ouest permet de relier Limoges à Beaubreuil, et par l'A 20.
